--- a/boyiERPServer/src/main/resources/excelDemo/realDosageDemo.xlsx
+++ b/boyiERPServer/src/main/resources/excelDemo/realDosageDemo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>订单号</t>
   </si>
@@ -42,6 +42,9 @@
     <t>物料名称</t>
   </si>
   <si>
+    <t>裁断鞋码缩放计划领料数目</t>
+  </si>
+  <si>
     <t>领料数量</t>
   </si>
   <si>
@@ -55,6 +58,12 @@
   </si>
   <si>
     <t>计划用量</t>
+  </si>
+  <si>
+    <t>鞋码缩放应发求和(每货号，每品牌)</t>
+  </si>
+  <si>
+    <t>实际领料求和(每货号，每品牌)</t>
   </si>
 </sst>
 </file>
@@ -62,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,6 +85,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -83,8 +115,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,8 +169,32 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,76 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,31 +215,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +238,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,91 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,73 +394,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +429,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,72 +516,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,142 +549,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,10 +1034,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1044,14 +1050,17 @@
     <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="13.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="32.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="10.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="12.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="11.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="10.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="12.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="36.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="32.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:13">
+    <row r="1" ht="40" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,20 +1085,29 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
